--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -5,16 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjuan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjuan/Documents/cherry/Python/pycharm/PO_UI_Test_Framework/element_info_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="6020" windowWidth="28800" windowHeight="10880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11380" yWindow="9340" windowWidth="17420" windowHeight="7720" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
     <sheet name="main_page" sheetId="2" r:id="rId2"/>
+    <sheet name="create_new_iteration_page" sheetId="3" r:id="rId3"/>
+    <sheet name="iteration_team_management" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">create_new_iteration_page!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">iteration_team_management!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,39 +100,366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>myzone_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//h1[@id="companyname"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="my"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="project"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="product"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username_showspan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[@class="user-name"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>companyname_showbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>myzone_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的地盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//h1[@id="companyname"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//li[@data-id="my"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//li[@data-id="project"]</t>
+    <t>添加迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iteration_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iteration_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iteration_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chose_iteration_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related_items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chose_related_items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_to_content_frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterative_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="pageActions"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="name"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="code"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="begin"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="end"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@id="team"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//select[@id="type"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择迭代类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//option[@title="长期迭代"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id="products0_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择关联项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//iframe[@class="ke-edit-iframe"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//body[@class="article-content"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@id="submit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@class="close"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@title="还呗"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td/div[@id="accounts_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@class="btn-toolbar pull-right"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_dev_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加开发成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择开发成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_dev_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_test_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择测试成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_test_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[2]/td/div/div/ul/li[@title="D:开发人员02"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[3]/td/div[@id="accounts_chosen"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//tr[3]/td/div/div/ul/li[@title="T:测试人员02"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@id="submit"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>点击添加测试成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@title="公共研发组sprint1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[@id="currentItem"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击迭代下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//li[@data-id="team"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,15 +872,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
@@ -571,16 +904,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -588,16 +921,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -605,18 +938,52 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
@@ -624,4 +991,486 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"id,class,xpath,link_text,css_selector,name,partial_link_text,tag_name"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"id,class,xpath,link_text,css_selector,name,partial_link_text,tag_name"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="9340" windowWidth="17420" windowHeight="7720" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8960" yWindow="-18780" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="main_page" sheetId="2" r:id="rId2"/>
     <sheet name="create_new_iteration_page" sheetId="3" r:id="rId3"/>
     <sheet name="iteration_team_management" sheetId="5" r:id="rId4"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,29 @@
   </si>
   <si>
     <t>//li[@data-id="team"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page</t>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,9 +817,10 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,8 +836,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -829,8 +856,11 @@
       <c r="E2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -846,8 +876,11 @@
       <c r="E3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -862,6 +895,109 @@
       </c>
       <c r="E4">
         <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +1011,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="-18780" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="5100" windowWidth="16720" windowHeight="11800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,9 +873,6 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
         <v>107</v>
       </c>
@@ -892,9 +889,6 @@
       </c>
       <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>108</v>

--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="5100" windowWidth="16720" windowHeight="11800" tabRatio="500"/>
+    <workbookView xWindow="-6340" yWindow="-11120" windowWidth="23260" windowHeight="11320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +483,14 @@
   </si>
   <si>
     <t>main_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +817,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -868,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -988,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>109</v>

--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6340" yWindow="-11120" windowWidth="23260" windowHeight="11320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="11320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
